--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50574F4F-633B-4D39-A2FD-B03C5CF01644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F967E8B-5AAC-4BBD-A8A8-F8AAF63273E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{3F95AB13-5C98-40A2-B108-45AEC6688C60}"/>
+    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{98FA3214-8304-4913-991E-498D044A9F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -150,7 +150,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{EB2F0112-E95D-4CD1-817D-E7EDA6B2CDB1}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{012D65E8-E749-4814-9367-1D76FE6F8ED1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835941D1-1264-4EA7-97AC-ABA5BD664CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB28B1E0-62C2-4F08-900D-8E811D20EA3D}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F967E8B-5AAC-4BBD-A8A8-F8AAF63273E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239948FD-F115-4472-AC37-FB0717DF9A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{98FA3214-8304-4913-991E-498D044A9F2A}"/>
+    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{00595505-2A5D-4AF0-8976-73A3A15FCF53}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -150,7 +150,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{012D65E8-E749-4814-9367-1D76FE6F8ED1}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{BC213DB4-6A9A-4F4B-A712-85E0C251A4F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB28B1E0-62C2-4F08-900D-8E811D20EA3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA54A6C-8728-4FB8-978E-07205A8F6548}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239948FD-F115-4472-AC37-FB0717DF9A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3EC8B37-EBA0-42DA-A16B-85F7B0F554AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{00595505-2A5D-4AF0-8976-73A3A15FCF53}"/>
+    <workbookView xWindow="5490" yWindow="1500" windowWidth="19390" windowHeight="11830" xr2:uid="{8D402391-224D-43F6-81F2-2F81C7E29F83}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$B$1:$B$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="4"/>
+  </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -60,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +78,28 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,17 +112,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,18 +158,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BC213DB4-6A9A-4F4B-A712-85E0C251A4F3}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{49336F6E-963F-4701-8C3E-6C1F7247AD97}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,66 +502,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA54A6C-8728-4FB8-978E-07205A8F6548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D80F0-041E-4268-9782-B075C2E8BD9D}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="2.4140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="3"/>
+    <col min="5" max="5" width="2.4140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="26.5" x14ac:dyDescent="0.8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="26.5" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:2" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:2" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lヘッダ右&amp;Cヘッダ中央&amp;Rヘッダ左</oddHeader>
     <oddFooter>&amp;L目次-&amp;P&amp;Cフッタ中央&amp;Rフッタ左</oddFooter>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3EC8B37-EBA0-42DA-A16B-85F7B0F554AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F69EEC7-159F-4F97-9842-E73D4CBE61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1500" windowWidth="19390" windowHeight="11830" xr2:uid="{8D402391-224D-43F6-81F2-2F81C7E29F83}"/>
+    <workbookView xWindow="5990" yWindow="540" windowWidth="19390" windowHeight="12310" xr2:uid="{86781B14-2B9E-4971-8B78-A6E1DD53FE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{49336F6E-963F-4701-8C3E-6C1F7247AD97}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{5D94AA41-DB3F-4E56-A92A-120D5180E1A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D80F0-041E-4268-9782-B075C2E8BD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73337EEF-732D-4D69-87D7-967EC94D3B7C}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F69EEC7-159F-4F97-9842-E73D4CBE61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{898B92EF-752C-49C9-B235-122A1C54AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5990" yWindow="540" windowWidth="19390" windowHeight="12310" xr2:uid="{86781B14-2B9E-4971-8B78-A6E1DD53FE5F}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="22620" windowHeight="12550" xr2:uid="{E77CB201-BC4F-4E5D-952D-5C170270E52D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{5D94AA41-DB3F-4E56-A92A-120D5180E1A9}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{51376874-7A21-4E65-A1B2-064B3FD00097}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73337EEF-732D-4D69-87D7-967EC94D3B7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A1FEC2-BFA6-47B2-A31A-F6BD218BF67E}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898B92EF-752C-49C9-B235-122A1C54AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{236D5592-3DD2-45D5-BD9E-32178E047A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="22620" windowHeight="12550" xr2:uid="{E77CB201-BC4F-4E5D-952D-5C170270E52D}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="22620" windowHeight="12150" xr2:uid="{AB6C180F-E0DD-479B-B496-8AF8D71FEEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{51376874-7A21-4E65-A1B2-064B3FD00097}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{E82D006D-252C-4778-88F0-0FE5D000B7DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A1FEC2-BFA6-47B2-A31A-F6BD218BF67E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E136A5E-0D89-49A6-85AD-5057730569FD}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{236D5592-3DD2-45D5-BD9E-32178E047A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEBB0E1-8BBD-4711-818F-7D40FD6E4C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="22620" windowHeight="12150" xr2:uid="{AB6C180F-E0DD-479B-B496-8AF8D71FEEDD}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19040" windowHeight="12700" xr2:uid="{2E0A3AC7-ECA5-4ADC-AAA3-5A3833AC5324}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{E82D006D-252C-4778-88F0-0FE5D000B7DF}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{98E2673C-13B8-4724-BF6E-0B6DE004802A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E136A5E-0D89-49A6-85AD-5057730569FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151F193-3A7B-4309-AD65-35B82A1C476C}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次doc.xlsx
+++ b/out/目次doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEBB0E1-8BBD-4711-818F-7D40FD6E4C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8BDE54-67E9-4107-B1F5-97E8ADB8396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19040" windowHeight="12700" xr2:uid="{2E0A3AC7-ECA5-4ADC-AAA3-5A3833AC5324}"/>
+    <workbookView xWindow="6130" yWindow="880" windowWidth="19040" windowHeight="12700" xr2:uid="{8A041000-BECC-47AC-BC3E-7123AE64336F}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{98E2673C-13B8-4724-BF6E-0B6DE004802A}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{3D57D1E7-1385-4A24-82B5-D5E8AAFAFB5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151F193-3A7B-4309-AD65-35B82A1C476C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF0179B-B454-43ED-B374-E9C83EDE9E16}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
